--- a/src/test/resources/testData.xlsx
+++ b/src/test/resources/testData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stawi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stawi\Desktop\travels\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E513F6-CEE2-4C3B-8D76-A6E24695A02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80075C0A-9347-4F25-9B2D-B9CD71111C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="1875" windowWidth="13755" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,10 @@
     <t>London</t>
   </si>
   <si>
-    <t>xxx</t>
-  </si>
-  <si>
-    <t>ccc</t>
+    <t>Jumeirah Beach Hotel</t>
+  </si>
+  <si>
+    <t>Grand Plaza Apartments</t>
   </si>
 </sst>
 </file>
@@ -363,7 +363,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
